--- a/data/trans_bre/P1801_2016_2023-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1801_2016_2023-Clase-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>9.203923946411862</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>8.916675090600656</v>
+        <v>8.916675090600645</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.1873935559721144</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.1657192508823993</v>
+        <v>0.1657192508823991</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.183439742485326</v>
+        <v>1.768593387862502</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.07461994714079</v>
+        <v>2.907373176704878</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.04679693652909638</v>
+        <v>0.03724944739923929</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.0532415689581052</v>
+        <v>0.05073499606786396</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.22488504576092</v>
+        <v>16.55609196450959</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.76756900250918</v>
+        <v>15.03428709057282</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.3635708252595196</v>
+        <v>0.3681746469171814</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.2953985989770867</v>
+        <v>0.3017942217484975</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2407053317501633</v>
+        <v>0.8625942945296127</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-5.913080196221446</v>
+        <v>-5.947832754046563</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.000504793408342921</v>
+        <v>0.01505357768323816</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1028196887392892</v>
+        <v>-0.09846191233488555</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>14.82569296303449</v>
+        <v>16.11708606242922</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.600483534438625</v>
+        <v>7.65702306237301</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3184435724550266</v>
+        <v>0.341030151247049</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.126968636906693</v>
+        <v>0.151216422501871</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>10.10255416592968</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>5.948531801371071</v>
+        <v>5.948531801371082</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0.1893249814977381</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.1147450765255803</v>
+        <v>0.1147450765255805</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9114313999785703</v>
+        <v>1.129464458369634</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.567572932075009</v>
+        <v>-1.620106090934825</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.01817649044842842</v>
+        <v>0.02165589031525712</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.04353982864610428</v>
+        <v>-0.02952602271534879</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.5542113388417</v>
+        <v>18.51163284780076</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.05033751249242</v>
+        <v>13.05738102594106</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.3658473978305622</v>
+        <v>0.3720018965741766</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.2674293681325025</v>
+        <v>0.2712158278827329</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>6.707345683316706</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>9.719832653156368</v>
+        <v>9.719832653156379</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.1400285459820262</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.1985163361707835</v>
+        <v>0.1985163361707837</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.084092623140538</v>
+        <v>1.58727093695449</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.086338908618131</v>
+        <v>5.356494115621396</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.04215165594683499</v>
+        <v>0.03286737973399132</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.09848933018089574</v>
+        <v>0.1024358879694935</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.20949149316504</v>
+        <v>11.14189407043121</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.1014831911558</v>
+        <v>14.4914307926693</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.245442200369575</v>
+        <v>0.2429380426928726</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3012496525160343</v>
+        <v>0.310937793896029</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.855018667234576</v>
+        <v>4.759608247473397</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.022339080457819</v>
+        <v>7.721985368956723</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.09900941433777977</v>
+        <v>0.1026987136776209</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.1705596496093157</v>
+        <v>0.1609741787411119</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.77799364520213</v>
+        <v>15.73189891148686</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.6359049158893</v>
+        <v>18.89324537351625</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.3702978476008421</v>
+        <v>0.3852355699607826</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.4700958784806443</v>
+        <v>0.4782085400142324</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>35.08852713662895</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>27.75507761670874</v>
+        <v>27.75507761670872</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>1.478703074006209</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1.414842385776773</v>
+        <v>1.414842385776772</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>28.72317704216238</v>
+        <v>28.96480966641786</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>17.6086856956569</v>
+        <v>18.12878737666385</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.9798987597957902</v>
+        <v>1.016527454962703</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.5725849783973946</v>
+        <v>0.655907297756539</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>40.66279975208499</v>
+        <v>40.82321295916449</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>34.88273660559347</v>
+        <v>35.56112947265866</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.067223363761966</v>
+        <v>2.170958061674239</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.639929796591929</v>
+        <v>2.814722981634798</v>
       </c>
     </row>
     <row r="22">
@@ -976,13 +976,13 @@
         <v>10.6331654219307</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>7.746466144698704</v>
+        <v>7.746466144698716</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0.2284110364106483</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0.1608642901552901</v>
+        <v>0.1608642901552903</v>
       </c>
     </row>
     <row r="23">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>8.181610174363509</v>
+        <v>8.231976274412734</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.547471633342064</v>
+        <v>5.372166880675213</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>0.1714166466841087</v>
+        <v>0.1708450013789858</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.1126911983190947</v>
+        <v>0.1084442478438186</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.04864038913899</v>
+        <v>12.88332362843522</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.00175336484434</v>
+        <v>10.23321507957349</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.2894009054360953</v>
+        <v>0.2847708631489189</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.2158022189708571</v>
+        <v>0.2189534858969554</v>
       </c>
     </row>
     <row r="25">
